--- a/src/main/resources/templates/excel/user_import_template.xlsx
+++ b/src/main/resources/templates/excel/user_import_template.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\Desktop\code\backup\DoAn\BE\iam\src\main\resources\templates\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\Desktop\code\backup\DoAn\BE_MONO\education\src\main\resources\templates\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E3A6CC-3F94-468C-A17E-833102A361A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78BFCA12-57D1-4360-89BD-782D4BAAC5D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="782" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="782" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Danh sách người dùng" sheetId="1" r:id="rId1"/>
     <sheet name="Danh sách lớp" sheetId="2" r:id="rId2"/>
+    <sheet name="Loại tài khoản" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511" calcMode="manual"/>
   <extLst>
@@ -84,8 +85,67 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>sang nguyen</author>
+    <author>admin</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{2F4A7011-0562-4D6F-85D9-F7AF1D84512F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>sang nguyen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+jx:area(lastCell = "C3")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="1" shapeId="0" xr:uid="{BDB2C095-C895-4163-ACA1-FAC833BE528E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+jx:each(items="accountTypes", var="item", varIndex="i", lastCell="C3")</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>${i+1}</t>
   </si>
@@ -139,6 +199,30 @@
   </si>
   <si>
     <t>Số điện thoại</t>
+  </si>
+  <si>
+    <t>Mã loại</t>
+  </si>
+  <si>
+    <t>Tên loại</t>
+  </si>
+  <si>
+    <t>Danh sách loại tài khoản</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Sang</t>
+  </si>
+  <si>
+    <t>sang@gmail.com</t>
+  </si>
+  <si>
+    <t>2001-01-01</t>
+  </si>
+  <si>
+    <t>STUDENT</t>
+  </si>
+  <si>
+    <t>CL20231</t>
   </si>
 </sst>
 </file>
@@ -148,7 +232,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0%"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,6 +285,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -222,7 +314,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -265,11 +357,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -308,6 +425,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -317,8 +437,21 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -631,11 +764,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,16 +784,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
     </row>
     <row r="2" spans="1:8" s="13" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -686,14 +819,43 @@
       </c>
       <c r="H2" s="8" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>198765221</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="21">
+        <v>987654123</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{62E6E718-8863-45C8-8627-10B23F90147F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -701,8 +863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E622704-BAAE-4834-9FB0-5C9CF9901A50}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -716,13 +878,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:5" s="13" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -765,4 +927,61 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{556B5A3A-D150-4806-B6B5-B13D3F8EB616}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+    </row>
+    <row r="2" spans="1:5" s="13" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>